--- a/excel/sample.xlsx
+++ b/excel/sample.xlsx
@@ -1,34 +1,187 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\SharedConfig\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F68FFE3-7370-466A-9FCE-34E47A11F4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="4665" yWindow="2580" windowWidth="21795" windowHeight="6045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="任务数据" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="任务数据" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>None</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>{
+    "jsonName": "missionID",
+    "label": "LABEL_OPTIONAL",
+    "name": "missionID",
+    "number": 1,
+    "tag": {
+        "name": "任务编号"
+    },
+    "type": "TYPE_INT32"
+}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>{
+    "jsonName": "missionExpireData",
+    "label": "LABEL_OPTIONAL",
+    "name": "missionExpireData",
+    "number": 2,
+    "tag": {
+        "datetime": true,
+        "name": "任务过期时间"
+    },
+    "type": "TYPE_INT32"
+}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>{
+    "jsonName": "itemID",
+    "label": "LABEL_OPTIONAL",
+    "name": "itemID",
+    "number": 1,
+    "tag": {
+        "name": "物品ID"
+    },
+    "type": "TYPE_INT32"
+}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>{
+    "jsonName": "itemCnt",
+    "label": "LABEL_OPTIONAL",
+    "name": "itemCnt",
+    "number": 2,
+    "tag": {
+        "name": "物品数量"
+    },
+    "type": "TYPE_INT32"
+}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>{
+    "jsonName": "isForActivity",
+    "label": "LABEL_OPTIONAL",
+    "name": "isForActivity",
+    "number": 3,
+    "tag": {
+        "name": "是否活动专用"
+    },
+    "type": "TYPE_BOOL"
+}</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>任务编号</t>
+  </si>
+  <si>
+    <t>任务过期时间</t>
+  </si>
+  <si>
+    <t>任务奖励[1].物品ID</t>
+  </si>
+  <si>
+    <t>任务奖励[1].物品数量</t>
+  </si>
+  <si>
+    <t>任务奖励[1].是否活动专用</t>
+  </si>
+  <si>
+    <t>2011-11-10 00:01:01</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,163 +199,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>None</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
-      <text>
-        <t>{
-    "jsonName": "missionID",
-    "label": "LABEL_OPTIONAL",
-    "name": "missionID",
-    "number": 1,
-    "tag": {
-        "name": "任务编号"
-    },
-    "type": "TYPE_INT32"
-}</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
-      <text>
-        <t>{
-    "jsonName": "missionExpireData",
-    "label": "LABEL_OPTIONAL",
-    "name": "missionExpireData",
-    "number": 2,
-    "tag": {
-        "datetime": true,
-        "name": "任务过期时间"
-    },
-    "type": "TYPE_INT32"
-}</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
-      <text>
-        <t>{
-    "jsonName": "itemID",
-    "label": "LABEL_OPTIONAL",
-    "name": "itemID",
-    "number": 1,
-    "tag": {
-        "name": "物品ID"
-    },
-    "type": "TYPE_INT32"
-}</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <t>{
-    "jsonName": "itemCnt",
-    "label": "LABEL_OPTIONAL",
-    "name": "itemCnt",
-    "number": 2,
-    "tag": {
-        "name": "物品数量"
-    },
-    "type": "TYPE_INT32"
-}</t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <t>{
-    "jsonName": "isForActivity",
-    "label": "LABEL_OPTIONAL",
-    "name": "isForActivity",
-    "number": 3,
-    "tag": {
-        "name": "是否活动专用"
-    },
-    "type": "TYPE_BOOL"
-}</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,48 +503,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>任务编号</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>任务过期时间</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>任务奖励[1].物品ID</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>任务奖励[1].物品数量</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>任务奖励[1].是否活动专用</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>34001</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel/sample.xlsx
+++ b/excel/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\SharedConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F68FFE3-7370-466A-9FCE-34E47A11F4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293149E9-5168-4391-932C-C07077A41F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="2580" windowWidth="21795" windowHeight="6045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="任务数据" sheetId="1" r:id="rId1"/>
@@ -141,12 +141,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>{
+    "jsonName": "icon",
+    "label": "LABEL_OPTIONAL",
+    "name": "icon",
+    "number": 4,
+    "tag": {
+        "client": true,
+        "name": "物品图标"
+    },
+    "type": "TYPE_STRING"
+}</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>任务编号</t>
   </si>
@@ -163,7 +187,13 @@
     <t>任务奖励[1].是否活动专用</t>
   </si>
   <si>
-    <t>2011-11-10 00:01:01</t>
+    <t>任务奖励[1].物品图标</t>
+  </si>
+  <si>
+    <t>2011-11-11 00:00:00</t>
+  </si>
+  <si>
+    <t>iconurl</t>
   </si>
 </sst>
 </file>
@@ -504,23 +534,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="30" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,27 +566,32 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>34001</v>
+        <v>4002</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/sample.xlsx
+++ b/excel/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\SharedConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293149E9-5168-4391-932C-C07077A41F05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4279AFB6-F708-49AE-9217-A667600851DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,12 +165,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>{
+    "jsonName": "type",
+    "label": "LABEL_OPTIONAL",
+    "name": "type",
+    "number": 5,
+    "tag": {
+        "name": "物品类型"
+    },
+    "type": "TYPE_ENUM",
+    "typeName": ".ItemType"
+}</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>任务编号</t>
   </si>
@@ -190,10 +214,16 @@
     <t>任务奖励[1].物品图标</t>
   </si>
   <si>
-    <t>2011-11-11 00:00:00</t>
-  </si>
-  <si>
-    <t>iconurl</t>
+    <t>任务奖励[1].物品类型</t>
+  </si>
+  <si>
+    <t>2011-10-11 00:00:00</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>ITEM_TYPE_EQIP</t>
   </si>
 </sst>
 </file>
@@ -534,23 +564,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,25 +599,28 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>4002</v>
+        <v>420001</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
